--- a/Aranzmani za agenciju Go2 Travelling.xlsx
+++ b/Aranzmani za agenciju Go2 Travelling.xlsx
@@ -457,151 +457,151 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marmaris</t>
+          <t>Kusadasi</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>279</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marmaris</t>
+          <t>Kusadasi</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>269</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kusadasi</t>
+          <t>Budva</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>169</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kusadasi</t>
+          <t>Evia</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>179</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lefkada</t>
+          <t>Budva</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>259</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lefkada</t>
+          <t>Evia</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>279</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Zakintos</t>
+          <t>Lutraki</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>359</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Zakintos</t>
+          <t>Lefkada</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>329</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kavos</t>
+          <t>Lutraki</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -609,106 +609,106 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lutraki</t>
+          <t>Marmaris</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Lutraki</t>
+          <t>Kavos</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Evia</t>
+          <t>Marmaris</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>219</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Evia</t>
+          <t>Lefkada</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>229</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Budva</t>
+          <t>Zakintos</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>210</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Budva</t>
+          <t>Zakintos</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>220</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
